--- a/misc_docs/Related Signals.xlsx
+++ b/misc_docs/Related Signals.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://porterbrookleasingcompany-my.sharepoint.com/personal/joe_wilson_porterbrook_co_uk/Documents/Documents/Workstreams/Instrumentel Event Refinement/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\StevenDas\Documents\Repository\case_management\misc_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="303" documentId="8_{230737D2-C3D0-4779-8F91-9C2210A43633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A316D182-F46F-4D56-899E-D21BE8967B8E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB813C2-1368-4CD8-B886-88F2732610ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{B9E88F39-C99E-4CC0-9545-80EF754BDD00}"/>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{1774A126-0C7D-484B-853D-5DEF826D0CA7}"/>
+    <workbookView xWindow="28680" yWindow="1620" windowWidth="29040" windowHeight="15720" xr2:uid="{B9E88F39-C99E-4CC0-9545-80EF754BDD00}"/>
+    <workbookView xWindow="28680" yWindow="1620" windowWidth="29040" windowHeight="15720" xr2:uid="{1774A126-0C7D-484B-853D-5DEF826D0CA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$109</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="211">
   <si>
     <t>Engine Shutdown - From High Revs</t>
   </si>
@@ -580,6 +583,117 @@
   </si>
   <si>
     <t>ACTION</t>
+  </si>
+  <si>
+    <t>avaliable?</t>
+  </si>
+  <si>
+    <t>Active_Error:float</t>
+  </si>
+  <si>
+    <t>EDC_Fault_1:float</t>
+  </si>
+  <si>
+    <t>EDC_Fault_2:float</t>
+  </si>
+  <si>
+    <t>EDC_Fault_3:float</t>
+  </si>
+  <si>
+    <t>EDC_Fault_4:float</t>
+  </si>
+  <si>
+    <t>EDC_Fault_5:float</t>
+  </si>
+  <si>
+    <t>Engine_Run:float</t>
+  </si>
+  <si>
+    <t>Engine_Start:float</t>
+  </si>
+  <si>
+    <t>Engine_Stop:float</t>
+  </si>
+  <si>
+    <t>Command_Notch:float</t>
+  </si>
+  <si>
+    <t>Input_Shaft_Speed:float</t>
+  </si>
+  <si>
+    <t>Engine_Speed:float</t>
+  </si>
+  <si>
+    <t>Main_Reservoir_Air_Pressure:float</t>
+  </si>
+  <si>
+    <t>Max_Speed_Engine:float</t>
+  </si>
+  <si>
+    <t>Minimum_Speed_Engine:float</t>
+  </si>
+  <si>
+    <t>Alternator_Frequency:float</t>
+  </si>
+  <si>
+    <t>Nom_Correction:float</t>
+  </si>
+  <si>
+    <t>Alternator_Speed:float</t>
+  </si>
+  <si>
+    <t>Failure_Bits:float</t>
+  </si>
+  <si>
+    <t>Oil_Temp_Before_Exchanger:float</t>
+  </si>
+  <si>
+    <t>Failure_Mode:float</t>
+  </si>
+  <si>
+    <t>Fallback:float</t>
+  </si>
+  <si>
+    <t>Output_Shaft_Speed:float</t>
+  </si>
+  <si>
+    <t>Average_Speed_Engine:float</t>
+  </si>
+  <si>
+    <t>Battery_Voltage:float</t>
+  </si>
+  <si>
+    <t>Fuel_Temperature:float</t>
+  </si>
+  <si>
+    <t>Charge_Air_Pressure:float</t>
+  </si>
+  <si>
+    <t>GPS_Speed:float</t>
+  </si>
+  <si>
+    <t>Coolant_Temperature:float</t>
+  </si>
+  <si>
+    <t>Hydrostatic_Engine_Speed:float</t>
+  </si>
+  <si>
+    <t>Turbine_Flywheel_Speed_Delta:float</t>
+  </si>
+  <si>
+    <t>Turbine_Speed_Fluid_Flywheel:float</t>
+  </si>
+  <si>
+    <t>Turbine_Speed_Torq_Converter:float</t>
+  </si>
+  <si>
+    <t>Idling_Speed_Engine:float</t>
+  </si>
+  <si>
+    <t>Vehicle_Speed:float</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -611,7 +725,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -620,7 +734,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,7 +1076,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -958,92 +1084,117 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1379,1547 +1530,2150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB23E759-E789-434C-8CC2-74A97CDA4712}">
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:V109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A15"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="1">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="37.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="40" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="40"/>
+    <col min="5" max="5" width="37.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="38.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="22" width="9.140625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="25" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="F1" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="27" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="30" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="E4" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="30" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="11" t="s">
+      <c r="F5" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="30" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="11" t="s">
+      <c r="F6" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="30" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="11" t="s">
+      <c r="F7" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="30" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="11" t="s">
+      <c r="F8" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="30" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="11" t="s">
+      <c r="F9" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="11" t="s">
+      <c r="E10" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="11" t="s">
+      <c r="E11" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="11" t="s">
+      <c r="E12" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="11" t="s">
+      <c r="E13" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19" t="s">
+      <c r="E14" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="E15" s="21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="E15" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="L15" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="M15" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="N15" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="O15" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="P15" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q15" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="R15" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="S15" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="T15" s="26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="27" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="30" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="E18" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="30" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="F19" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C20" s="11" t="s">
+      <c r="B20" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="30" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="F20" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C21" s="11" t="s">
+      <c r="B21" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="30" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="F21" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="C22" s="11" t="s">
+      <c r="B22" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="30" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="11" t="s">
+      <c r="F22" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="30" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="11" t="s">
+      <c r="F23" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="11" t="s">
+      <c r="E24" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="11" t="s">
+      <c r="E25" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="11" t="s">
+      <c r="E26" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="J26" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="K26" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="L26" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="M26" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="N26" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="O26" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="P26" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q26" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="R26" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="S26" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="T26" s="26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="30" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19" t="s">
+      <c r="F27" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="38" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="F28" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="27" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+    <row r="30" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C30" s="11" t="s">
+      <c r="B30" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="30" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F30" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C31" s="11" t="s">
+      <c r="B31" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="E31" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="E31" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C32" s="11" t="s">
+      <c r="B32" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="30" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="F32" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C33" s="11" t="s">
+      <c r="B33" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="30" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="F33" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C34" s="11" t="s">
+      <c r="B34" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="30" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="F34" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C35" s="11" t="s">
+      <c r="B35" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="30" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="F35" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C36" s="11" t="s">
+      <c r="B36" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="30" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="F36" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C37" s="11" t="s">
+      <c r="B37" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="E37" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="E37" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C38" s="11" t="s">
+      <c r="B38" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="E38" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="E38" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C39" s="11" t="s">
+      <c r="B39" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="E39" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="E39" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C40" s="11" t="s">
+      <c r="B40" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="E40" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="E40" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G40" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C41" s="11" t="s">
+      <c r="B41" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="E41" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="E41" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G41" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C42" s="11" t="s">
+      <c r="B42" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="E42" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E42" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="G42" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="H42" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="I42" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="J42" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="K42" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="L42" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="M42" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="N42" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="O42" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="P42" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q42" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="R42" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="S42" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="T42" s="26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="24"/>
-    </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="31"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="30"/>
+    </row>
+    <row r="44" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="24"/>
-    </row>
-    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B44" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" s="31"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="30"/>
+    </row>
+    <row r="45" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="24"/>
-    </row>
-    <row r="46" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="25" t="s">
+      <c r="B45" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="31"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="30"/>
+    </row>
+    <row r="46" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="28"/>
-    </row>
-    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="B46" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" s="36"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="38"/>
+    </row>
+    <row r="47" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="27" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C48" s="11" t="s">
+      <c r="B48" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="E48" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
+      <c r="E48" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="C49" s="11" t="s">
+      <c r="B49" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="E49" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G49" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="11" t="s">
+      <c r="B50" s="34"/>
+      <c r="C50" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="E50" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="17"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19" t="s">
+      <c r="E50" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="G50" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="H50" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="I50" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="J50" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="K50" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="L50" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="M50" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="N50" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="O50" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="P50" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q50" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="R50" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="S50" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="T50" s="26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="16"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="E51" s="21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="E51" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G51" s="26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="27" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C53" s="11" t="s">
+      <c r="B53" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="E53" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
+      <c r="E53" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="C54" s="11" t="s">
+      <c r="B54" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="E54" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="17"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="19" t="s">
+      <c r="E54" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G54" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="19"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="D55" s="20" t="s">
+      <c r="D55" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="E55" s="21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="E55" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G55" s="26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="27" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C57" s="11" t="s">
+      <c r="B57" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D57" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="E57" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
+      <c r="E57" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B58" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="C58" s="11" t="s">
+      <c r="B58" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D58" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="E58" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="11" t="s">
+      <c r="E58" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G58" s="26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="21"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="E59" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="11" t="s">
+      <c r="E59" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G59" s="26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="21"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="E60" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="17"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="19" t="s">
+      <c r="E60" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G60" s="26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="22"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="D61" s="20" t="s">
+      <c r="D61" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="E61" s="21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+      <c r="E61" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G61" s="26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="27" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B63" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C63" s="11" t="s">
+      <c r="B63" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D63" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="E63" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
+      <c r="E63" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C64" s="11" t="s">
+      <c r="B64" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="D64" s="12" t="s">
+      <c r="D64" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="E64" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="13" t="s">
+      <c r="E64" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G64" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B65" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="C65" s="11" t="s">
+      <c r="B65" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C65" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D65" s="12" t="s">
+      <c r="D65" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="E65" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="17"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19" t="s">
+      <c r="E65" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G65" s="26" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="16"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="D66" s="20" t="s">
+      <c r="D66" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="E66" s="21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+      <c r="E66" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G66" s="26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E67" s="27" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B68" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C68" s="11" t="s">
+      <c r="B68" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="D68" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="E68" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
+      <c r="E68" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B69" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C69" s="11" t="s">
+      <c r="B69" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="D69" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="E69" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
+      <c r="E69" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G69" s="26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B70" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C70" s="22"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="24"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
+      <c r="B70" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" s="31"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="30"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B71" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C71" s="22"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="24"/>
-    </row>
-    <row r="72" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="29" t="s">
+      <c r="B71" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71" s="31"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="30"/>
+    </row>
+    <row r="72" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B72" s="21" t="s">
+      <c r="B72" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="C72" s="26"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="28"/>
-    </row>
-    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+      <c r="C72" s="36"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="38"/>
+    </row>
+    <row r="73" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="E73" s="27" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="13" t="s">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B74" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="C74" s="11" t="s">
+      <c r="B74" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C74" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D74" s="12" t="s">
+      <c r="D74" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="E74" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="15"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="11" t="s">
+      <c r="E74" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="11"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="D75" s="12" t="s">
+      <c r="D75" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="E75" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="15"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="11" t="s">
+      <c r="E75" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G75" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" s="11"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="D76" s="12" t="s">
+      <c r="D76" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="E76" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="15"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="11" t="s">
+      <c r="E76" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="G76" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="H76" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="I76" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="J76" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="K76" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="L76" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="M76" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="N76" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="O76" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="P76" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q76" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="R76" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="S76" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="T76" s="26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="11"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="D77" s="12" t="s">
+      <c r="D77" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="E77" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="30"/>
-      <c r="B78" s="31"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="24"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
+      <c r="E77" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G77" s="26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" s="23"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="30"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="C79" s="11" t="s">
+      <c r="B79" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D79" s="12" t="s">
+      <c r="D79" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="E79" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="15"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="11" t="s">
+      <c r="E79" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="11"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="D80" s="12" t="s">
+      <c r="D80" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="E80" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="15"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="11" t="s">
+      <c r="E80" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G80" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" s="11"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="D81" s="12" t="s">
+      <c r="D81" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="E81" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="30"/>
-      <c r="B82" s="31"/>
-      <c r="C82" s="11" t="s">
+      <c r="E81" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="G81" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="H81" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="I81" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="J81" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="K81" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="L81" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="M81" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="N81" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="O81" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="P81" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q81" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="R81" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="S81" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="T81" s="26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="23"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D82" s="12" t="s">
+      <c r="D82" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="E82" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="9" t="s">
+      <c r="E82" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G82" s="26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C83" s="22"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="24"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="9" t="s">
+      <c r="C83" s="31"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="30"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C84" s="22"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="24"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="s">
+      <c r="C84" s="31"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="30"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C85" s="22"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="24"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="s">
+      <c r="C85" s="31"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="30"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C86" s="22"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="24"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="9" t="s">
+      <c r="C86" s="31"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="30"/>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C87" s="22"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="24"/>
-    </row>
-    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="9" t="s">
+      <c r="C87" s="31"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="30"/>
+    </row>
+    <row r="88" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C88" s="22"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="24"/>
-    </row>
-    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
+      <c r="C88" s="31"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="30"/>
+    </row>
+    <row r="89" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C89" s="22"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="24"/>
-    </row>
-    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="9" t="s">
+      <c r="C89" s="31"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="30"/>
+    </row>
+    <row r="90" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C90" s="22"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="24"/>
-    </row>
-    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
+      <c r="C90" s="31"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="30"/>
+    </row>
+    <row r="91" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C91" s="22"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="24"/>
-    </row>
-    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="s">
+      <c r="C91" s="31"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="30"/>
+    </row>
+    <row r="92" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C92" s="22"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="24"/>
-    </row>
-    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="9" t="s">
+      <c r="C92" s="31"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="30"/>
+    </row>
+    <row r="93" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C93" s="22"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="24"/>
-    </row>
-    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="9" t="s">
+      <c r="C93" s="31"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="30"/>
+    </row>
+    <row r="94" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C94" s="22"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="24"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="9" t="s">
+      <c r="C94" s="31"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="30"/>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C95" s="22"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="24"/>
-    </row>
-    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="9" t="s">
+      <c r="C95" s="31"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="30"/>
+    </row>
+    <row r="96" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C96" s="22"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="24"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="30"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C97" s="22"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="24"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="30"/>
     </row>
     <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B98" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C98" s="22"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="24"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="30"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C99" s="22"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="24"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="30"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C100" s="22"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="24"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="32"/>
+      <c r="E100" s="30"/>
     </row>
     <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="9" t="s">
+      <c r="A101" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C101" s="22"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="24"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="30"/>
     </row>
     <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="9" t="s">
+      <c r="A102" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C102" s="22"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="24"/>
+      <c r="C102" s="31"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="30"/>
     </row>
     <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="9" t="s">
+      <c r="A103" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C103" s="22"/>
-      <c r="D103" s="23"/>
-      <c r="E103" s="24"/>
+      <c r="C103" s="31"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="30"/>
     </row>
     <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="9" t="s">
+      <c r="A104" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C104" s="22"/>
-      <c r="D104" s="23"/>
-      <c r="E104" s="24"/>
+      <c r="C104" s="31"/>
+      <c r="D104" s="32"/>
+      <c r="E104" s="30"/>
     </row>
     <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B105" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C105" s="22"/>
-      <c r="D105" s="23"/>
-      <c r="E105" s="24"/>
+      <c r="C105" s="31"/>
+      <c r="D105" s="32"/>
+      <c r="E105" s="30"/>
     </row>
     <row r="106" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="9" t="s">
+      <c r="A106" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C106" s="22"/>
-      <c r="D106" s="23"/>
-      <c r="E106" s="24"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="32"/>
+      <c r="E106" s="30"/>
     </row>
     <row r="107" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A107" s="9" t="s">
+      <c r="A107" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C107" s="22"/>
-      <c r="D107" s="23"/>
-      <c r="E107" s="24"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="30"/>
     </row>
     <row r="108" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="9" t="s">
+      <c r="A108" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C108" s="22"/>
-      <c r="D108" s="23"/>
-      <c r="E108" s="24"/>
+      <c r="C108" s="31"/>
+      <c r="D108" s="32"/>
+      <c r="E108" s="30"/>
     </row>
     <row r="109" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="25" t="s">
+      <c r="A109" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B109" s="21" t="s">
+      <c r="B109" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="C109" s="26"/>
-      <c r="D109" s="27"/>
-      <c r="E109" s="28"/>
+      <c r="C109" s="36"/>
+      <c r="D109" s="37"/>
+      <c r="E109" s="38"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E109" xr:uid="{CB23E759-E789-434C-8CC2-74A97CDA4712}"/>
   <mergeCells count="16">
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
     <mergeCell ref="A22:A28"/>
     <mergeCell ref="B22:B28"/>
     <mergeCell ref="A5:A15"/>
@@ -2930,12 +3684,6 @@
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="B49:B51"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2948,8 +3696,8 @@
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="1">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="1">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
